--- a/data/IK_Konj+Destatis_HWWI.xlsx
+++ b/data/IK_Konj+Destatis_HWWI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.mueller\Documents\FileCloud\Team Folders\IK_Server\Wirtschaft\statistische Daten\ik-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB37F8F4-C147-4BCC-903B-97E3ACFD487D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0D9DA7-A472-413A-A243-257B4FFEBBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,16 +28,16 @@
     <t>Monat</t>
   </si>
   <si>
-    <t>Index_Preisentwicklung Energy raw materials</t>
+    <t>Index_Preisentwicklung Energierohstoffe</t>
   </si>
   <si>
-    <t>Index_Preisentwicklung Coal</t>
+    <t>Index_Preisentwicklung Kohle</t>
   </si>
   <si>
-    <t>Index_Preisentwicklung Crude oil</t>
+    <t>Index_Preisentwicklung Rohöl</t>
   </si>
   <si>
-    <t>Index_Preisentwicklung Natural gas</t>
+    <t>Index_Preisentwicklung Erdgas</t>
   </si>
   <si>
     <t>WZ CODE</t>
@@ -475,13 +475,10 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41:X41"/>
+      <selection activeCell="X41" sqref="P41:X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/data/IK_Konj+Destatis_HWWI.xlsx
+++ b/data/IK_Konj+Destatis_HWWI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.mueller\Documents\FileCloud\Team Folders\IK_Server\Wirtschaft\statistische Daten\ik-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0D9DA7-A472-413A-A243-257B4FFEBBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF77DF9-441F-423F-BA89-D78955D9639B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3660" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="30">
   <si>
     <t>Jahr</t>
   </si>
@@ -472,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X41" sqref="P41:X41"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="X45" sqref="X45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3361,6 +3361,41 @@
         <v>-53.8</v>
       </c>
     </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2025</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42">
+        <v>-17.39130434782609</v>
+      </c>
+      <c r="J42">
+        <v>-43.478260869565219</v>
+      </c>
+      <c r="K42">
+        <v>-9.8901098901098905</v>
+      </c>
+      <c r="L42">
+        <v>5.4347826086956523</v>
+      </c>
+      <c r="M42">
+        <v>-7.608695652173914</v>
+      </c>
+      <c r="N42">
+        <v>1.086956521739129</v>
+      </c>
+      <c r="O42">
+        <v>-66.304347826086953</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/IK_Konj+Destatis_HWWI.xlsx
+++ b/data/IK_Konj+Destatis_HWWI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X42"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,80 +476,75 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Index_Absatz</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Index_Beschäftigtenzahl</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Index_Ertrag</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Index_Exporte</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Index_Rohstoffverfügbarkeit</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Index_Umsatz</t>
-        </is>
-      </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Index_Verkaufspreise (Branchenprodukte)</t>
+          <t>Index_Wirtschaftslage</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Index_Wirtschaftslage</t>
+          <t>Betriebe</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Betriebe</t>
+          <t>Beschäftigte</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Beschäftigte</t>
+          <t>Geleistete Arbeitsstunden</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Geleistete Arbeitsstunden</t>
+          <t>Bruttolohn- und -gehaltssumme</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Bruttolohn- und -gehaltssumme</t>
+          <t>Umsatz</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Umsatz</t>
+          <t>Inlandsumsatz</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Inlandsumsatz</t>
+          <t>Auslandsumsatz</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Auslandsumsatz</t>
+          <t>Auslandsumsatz mit der Eurozone</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Auslandsumsatz mit der Eurozone</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Auslandsumsatz mit dem sonstigen Ausland</t>
         </is>
@@ -587,47 +582,42 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="n">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="n">
         <v>-4.5</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>1.5</v>
       </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>-27.8</v>
+        <v>29.3</v>
       </c>
       <c r="O2" t="n">
-        <v>29.3</v>
+        <v>494.3333333333333</v>
       </c>
       <c r="P2" t="n">
-        <v>494.3333333333333</v>
+        <v>85415.66666666667</v>
       </c>
       <c r="Q2" t="n">
-        <v>85415.66666666667</v>
+        <v>34801667</v>
       </c>
       <c r="R2" t="n">
-        <v>34801667</v>
+        <v>812034667</v>
       </c>
       <c r="S2" t="n">
-        <v>812034667</v>
+        <v>5093306000</v>
       </c>
       <c r="T2" t="n">
-        <v>5093306000</v>
+        <v>2846582001</v>
       </c>
       <c r="U2" t="n">
-        <v>2846582001</v>
+        <v>2246724000</v>
       </c>
       <c r="V2" t="n">
-        <v>2246724000</v>
+        <v>1363936667</v>
       </c>
       <c r="W2" t="n">
-        <v>1363936667</v>
-      </c>
-      <c r="X2" t="n">
         <v>882786333</v>
       </c>
     </row>
@@ -663,47 +653,42 @@
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
         <v>-11.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>14.7</v>
       </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>30</v>
-      </c>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>4.6</v>
+        <v>58.5</v>
       </c>
       <c r="O3" t="n">
-        <v>58.5</v>
+        <v>494.6666666666667</v>
       </c>
       <c r="P3" t="n">
-        <v>494.6666666666667</v>
+        <v>87143.33333333333</v>
       </c>
       <c r="Q3" t="n">
-        <v>87143.33333333333</v>
+        <v>34417001</v>
       </c>
       <c r="R3" t="n">
-        <v>34417001</v>
+        <v>886895333</v>
       </c>
       <c r="S3" t="n">
-        <v>886895333</v>
+        <v>5312760333</v>
       </c>
       <c r="T3" t="n">
-        <v>5312760333</v>
+        <v>2968539000</v>
       </c>
       <c r="U3" t="n">
-        <v>2968539000</v>
+        <v>2344222334</v>
       </c>
       <c r="V3" t="n">
-        <v>2344222334</v>
+        <v>1422852333</v>
       </c>
       <c r="W3" t="n">
-        <v>1422852333</v>
-      </c>
-      <c r="X3" t="n">
         <v>921369999</v>
       </c>
     </row>
@@ -739,47 +724,42 @@
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
         <v>-33.9</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>-4.6</v>
       </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>12.7</v>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>43.5</v>
+        <v>60.2</v>
       </c>
       <c r="O4" t="n">
-        <v>60.2</v>
+        <v>494.3333333333333</v>
       </c>
       <c r="P4" t="n">
-        <v>494.3333333333333</v>
+        <v>88792.33333333333</v>
       </c>
       <c r="Q4" t="n">
-        <v>88792.33333333333</v>
+        <v>35328334</v>
       </c>
       <c r="R4" t="n">
-        <v>35328334</v>
+        <v>854039666</v>
       </c>
       <c r="S4" t="n">
-        <v>854039666</v>
+        <v>5371702666</v>
       </c>
       <c r="T4" t="n">
-        <v>5371702666</v>
+        <v>3051743667</v>
       </c>
       <c r="U4" t="n">
-        <v>3051743667</v>
+        <v>2319959999</v>
       </c>
       <c r="V4" t="n">
-        <v>2319959999</v>
+        <v>1402910000</v>
       </c>
       <c r="W4" t="n">
-        <v>1402910000</v>
-      </c>
-      <c r="X4" t="n">
         <v>917048334</v>
       </c>
     </row>
@@ -815,47 +795,42 @@
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
         <v>-4.9</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>4</v>
       </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>-21.8</v>
+        <v>55.3</v>
       </c>
       <c r="O5" t="n">
-        <v>55.3</v>
+        <v>493.6666666666667</v>
       </c>
       <c r="P5" t="n">
-        <v>493.6666666666667</v>
+        <v>88520.66666666667</v>
       </c>
       <c r="Q5" t="n">
-        <v>88520.66666666667</v>
+        <v>34910000</v>
       </c>
       <c r="R5" t="n">
-        <v>34910000</v>
+        <v>976991000</v>
       </c>
       <c r="S5" t="n">
-        <v>976991000</v>
+        <v>5002082333</v>
       </c>
       <c r="T5" t="n">
-        <v>5002082333</v>
+        <v>2797713334</v>
       </c>
       <c r="U5" t="n">
-        <v>2797713334</v>
+        <v>2204367001</v>
       </c>
       <c r="V5" t="n">
-        <v>2204367001</v>
+        <v>1333176334</v>
       </c>
       <c r="W5" t="n">
-        <v>1333176334</v>
-      </c>
-      <c r="X5" t="n">
         <v>871193334</v>
       </c>
     </row>
@@ -891,47 +866,42 @@
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
         <v>2.8</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>11.3</v>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>29.4</v>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>12.8</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>70.59999999999999</v>
+        <v>503.6666666666667</v>
       </c>
       <c r="P6" t="n">
-        <v>503.6666666666667</v>
+        <v>89736</v>
       </c>
       <c r="Q6" t="n">
-        <v>89736</v>
+        <v>36504333</v>
       </c>
       <c r="R6" t="n">
-        <v>36504333</v>
+        <v>870135000</v>
       </c>
       <c r="S6" t="n">
-        <v>870135000</v>
+        <v>5264862666</v>
       </c>
       <c r="T6" t="n">
-        <v>5264862666</v>
+        <v>2940092666</v>
       </c>
       <c r="U6" t="n">
-        <v>2940092666</v>
+        <v>2324770000</v>
       </c>
       <c r="V6" t="n">
-        <v>2324770000</v>
+        <v>1428560667</v>
       </c>
       <c r="W6" t="n">
-        <v>1428560667</v>
-      </c>
-      <c r="X6" t="n">
         <v>896210333</v>
       </c>
     </row>
@@ -967,47 +937,42 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
         <v>-6.9</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>8</v>
       </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>20.6</v>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>7.9</v>
+        <v>62.7</v>
       </c>
       <c r="O7" t="n">
-        <v>62.7</v>
+        <v>508.6666666666667</v>
       </c>
       <c r="P7" t="n">
-        <v>508.6666666666667</v>
+        <v>90386</v>
       </c>
       <c r="Q7" t="n">
-        <v>90386</v>
+        <v>36793667</v>
       </c>
       <c r="R7" t="n">
-        <v>36793667</v>
+        <v>946337999</v>
       </c>
       <c r="S7" t="n">
-        <v>946337999</v>
+        <v>5644707667</v>
       </c>
       <c r="T7" t="n">
-        <v>5644707667</v>
+        <v>3178824667</v>
       </c>
       <c r="U7" t="n">
-        <v>3178824667</v>
+        <v>2465883667</v>
       </c>
       <c r="V7" t="n">
-        <v>2465883667</v>
+        <v>1496121000</v>
       </c>
       <c r="W7" t="n">
-        <v>1496121000</v>
-      </c>
-      <c r="X7" t="n">
         <v>969759000</v>
       </c>
     </row>
@@ -1043,47 +1008,42 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
         <v>-14.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>4.5</v>
       </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>10.7</v>
-      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>72.5</v>
       </c>
       <c r="O8" t="n">
-        <v>72.5</v>
+        <v>510</v>
       </c>
       <c r="P8" t="n">
-        <v>510</v>
+        <v>91594.66666666669</v>
       </c>
       <c r="Q8" t="n">
-        <v>91594.66666666669</v>
+        <v>36339000</v>
       </c>
       <c r="R8" t="n">
-        <v>36339000</v>
+        <v>902081000</v>
       </c>
       <c r="S8" t="n">
-        <v>902081000</v>
+        <v>5586796001</v>
       </c>
       <c r="T8" t="n">
-        <v>5586796001</v>
+        <v>3188010666</v>
       </c>
       <c r="U8" t="n">
-        <v>3188010666</v>
+        <v>2398785667</v>
       </c>
       <c r="V8" t="n">
-        <v>2398785667</v>
+        <v>1436498334</v>
       </c>
       <c r="W8" t="n">
-        <v>1436498334</v>
-      </c>
-      <c r="X8" t="n">
         <v>962288334</v>
       </c>
     </row>
@@ -1119,47 +1079,42 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
         <v>-8</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>2.3</v>
       </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>22.1</v>
-      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>2.3</v>
+        <v>60.9</v>
       </c>
       <c r="O9" t="n">
-        <v>60.9</v>
+        <v>509</v>
       </c>
       <c r="P9" t="n">
-        <v>509</v>
+        <v>91318.66666666669</v>
       </c>
       <c r="Q9" t="n">
-        <v>91318.66666666669</v>
+        <v>35379667</v>
       </c>
       <c r="R9" t="n">
-        <v>35379667</v>
+        <v>1023019999</v>
       </c>
       <c r="S9" t="n">
-        <v>1023019999</v>
+        <v>5179956333</v>
       </c>
       <c r="T9" t="n">
-        <v>5179956333</v>
+        <v>2901878667</v>
       </c>
       <c r="U9" t="n">
-        <v>2901878667</v>
+        <v>2278077666</v>
       </c>
       <c r="V9" t="n">
-        <v>2278077666</v>
+        <v>1357997333</v>
       </c>
       <c r="W9" t="n">
-        <v>1357997333</v>
-      </c>
-      <c r="X9" t="n">
         <v>920080001</v>
       </c>
     </row>
@@ -1195,47 +1150,42 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>12.2</v>
       </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>26.3</v>
-      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>21.2</v>
+        <v>70</v>
       </c>
       <c r="O10" t="n">
-        <v>70</v>
+        <v>510.6666666666667</v>
       </c>
       <c r="P10" t="n">
-        <v>510.6666666666667</v>
+        <v>90882.66666666669</v>
       </c>
       <c r="Q10" t="n">
-        <v>90882.66666666669</v>
+        <v>37728334</v>
       </c>
       <c r="R10" t="n">
-        <v>37728334</v>
+        <v>905791666</v>
       </c>
       <c r="S10" t="n">
-        <v>905791666</v>
+        <v>5554466000</v>
       </c>
       <c r="T10" t="n">
-        <v>5554466000</v>
+        <v>3043362666</v>
       </c>
       <c r="U10" t="n">
-        <v>3043362666</v>
+        <v>2511104000</v>
       </c>
       <c r="V10" t="n">
-        <v>2511104000</v>
+        <v>1523806667</v>
       </c>
       <c r="W10" t="n">
-        <v>1523806667</v>
-      </c>
-      <c r="X10" t="n">
         <v>987298333</v>
       </c>
     </row>
@@ -1271,47 +1221,42 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
         <v>-23.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>-4</v>
       </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>19.6</v>
-      </c>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>56.4</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>78.40000000000001</v>
+        <v>515.3333333333334</v>
       </c>
       <c r="P11" t="n">
-        <v>515.3333333333334</v>
+        <v>91548.66666666669</v>
       </c>
       <c r="Q11" t="n">
-        <v>91548.66666666669</v>
+        <v>36063000</v>
       </c>
       <c r="R11" t="n">
-        <v>36063000</v>
+        <v>982136667</v>
       </c>
       <c r="S11" t="n">
-        <v>982136667</v>
+        <v>5721324333</v>
       </c>
       <c r="T11" t="n">
-        <v>5721324333</v>
+        <v>3125315001</v>
       </c>
       <c r="U11" t="n">
-        <v>3125315001</v>
+        <v>2596007667</v>
       </c>
       <c r="V11" t="n">
-        <v>2596007667</v>
+        <v>1554673667</v>
       </c>
       <c r="W11" t="n">
-        <v>1554673667</v>
-      </c>
-      <c r="X11" t="n">
         <v>1041335000</v>
       </c>
     </row>
@@ -1347,47 +1292,42 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
         <v>0</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>2.1</v>
       </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>4.3</v>
-      </c>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>-3.2</v>
+        <v>88.3</v>
       </c>
       <c r="O12" t="n">
-        <v>88.3</v>
+        <v>513</v>
       </c>
       <c r="P12" t="n">
-        <v>513</v>
+        <v>92896.33333333331</v>
       </c>
       <c r="Q12" t="n">
-        <v>92896.33333333331</v>
+        <v>36435333</v>
       </c>
       <c r="R12" t="n">
-        <v>36435333</v>
+        <v>923190001</v>
       </c>
       <c r="S12" t="n">
-        <v>923190001</v>
+        <v>5706937667</v>
       </c>
       <c r="T12" t="n">
-        <v>5706937667</v>
+        <v>3187001334</v>
       </c>
       <c r="U12" t="n">
-        <v>3187001334</v>
+        <v>2519937333</v>
       </c>
       <c r="V12" t="n">
-        <v>2519937333</v>
+        <v>1481948333</v>
       </c>
       <c r="W12" t="n">
-        <v>1481948333</v>
-      </c>
-      <c r="X12" t="n">
         <v>1037990667</v>
       </c>
     </row>
@@ -1423,47 +1363,42 @@
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
         <v>-12</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>9.1</v>
       </c>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>25.7</v>
-      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>23.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>86.09999999999999</v>
+        <v>512.3333333333334</v>
       </c>
       <c r="P13" t="n">
-        <v>512.3333333333334</v>
+        <v>92995</v>
       </c>
       <c r="Q13" t="n">
-        <v>92995</v>
+        <v>35387000</v>
       </c>
       <c r="R13" t="n">
-        <v>35387000</v>
+        <v>1073667999</v>
       </c>
       <c r="S13" t="n">
-        <v>1073667999</v>
+        <v>5313750333</v>
       </c>
       <c r="T13" t="n">
-        <v>5313750333</v>
+        <v>2905312667</v>
       </c>
       <c r="U13" t="n">
-        <v>2905312667</v>
+        <v>2408438000</v>
       </c>
       <c r="V13" t="n">
-        <v>2408438000</v>
+        <v>1442275999</v>
       </c>
       <c r="W13" t="n">
-        <v>1442275999</v>
-      </c>
-      <c r="X13" t="n">
         <v>966161334</v>
       </c>
     </row>
@@ -1499,47 +1434,42 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
         <v>-5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>15</v>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>35.6</v>
-      </c>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>40</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>89.09999999999999</v>
+        <v>510</v>
       </c>
       <c r="P14" t="n">
-        <v>510</v>
+        <v>95069.66666666669</v>
       </c>
       <c r="Q14" t="n">
-        <v>95069.66666666669</v>
+        <v>38554333</v>
       </c>
       <c r="R14" t="n">
-        <v>38554333</v>
+        <v>975321667</v>
       </c>
       <c r="S14" t="n">
-        <v>975321667</v>
+        <v>5795561667</v>
       </c>
       <c r="T14" t="n">
-        <v>5795561667</v>
+        <v>3151074001</v>
       </c>
       <c r="U14" t="n">
-        <v>3151074001</v>
+        <v>2644488667</v>
       </c>
       <c r="V14" t="n">
-        <v>2644488667</v>
+        <v>1597820666</v>
       </c>
       <c r="W14" t="n">
-        <v>1597820666</v>
-      </c>
-      <c r="X14" t="n">
         <v>1046669667</v>
       </c>
     </row>
@@ -1575,47 +1505,42 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>19.8</v>
       </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>33.7</v>
-      </c>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>39.8</v>
+        <v>85.5</v>
       </c>
       <c r="O15" t="n">
-        <v>85.5</v>
+        <v>512.6666666666666</v>
       </c>
       <c r="P15" t="n">
-        <v>512.6666666666666</v>
+        <v>95527</v>
       </c>
       <c r="Q15" t="n">
-        <v>95527</v>
+        <v>37477667</v>
       </c>
       <c r="R15" t="n">
-        <v>37477667</v>
+        <v>1041839667</v>
       </c>
       <c r="S15" t="n">
-        <v>1041839667</v>
+        <v>5980455333</v>
       </c>
       <c r="T15" t="n">
-        <v>5980455333</v>
+        <v>3268191000</v>
       </c>
       <c r="U15" t="n">
-        <v>3268191000</v>
+        <v>2712264333</v>
       </c>
       <c r="V15" t="n">
-        <v>2712264333</v>
+        <v>1627374667</v>
       </c>
       <c r="W15" t="n">
-        <v>1627374667</v>
-      </c>
-      <c r="X15" t="n">
         <v>1084889666</v>
       </c>
     </row>
@@ -1651,47 +1576,42 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
         <v>-20.3</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>-7</v>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>34.7</v>
+        <v>78</v>
       </c>
       <c r="O16" t="n">
-        <v>78</v>
+        <v>514.6666666666666</v>
       </c>
       <c r="P16" t="n">
-        <v>514.6666666666666</v>
+        <v>97077</v>
       </c>
       <c r="Q16" t="n">
-        <v>97077</v>
+        <v>37658333</v>
       </c>
       <c r="R16" t="n">
-        <v>37658333</v>
+        <v>988303000</v>
       </c>
       <c r="S16" t="n">
-        <v>988303000</v>
+        <v>5848516667</v>
       </c>
       <c r="T16" t="n">
-        <v>5848516667</v>
+        <v>3289888333</v>
       </c>
       <c r="U16" t="n">
-        <v>3289888333</v>
+        <v>2558627666</v>
       </c>
       <c r="V16" t="n">
-        <v>2558627666</v>
+        <v>1507515333</v>
       </c>
       <c r="W16" t="n">
-        <v>1507515333</v>
-      </c>
-      <c r="X16" t="n">
         <v>1051112334</v>
       </c>
     </row>
@@ -1727,47 +1647,42 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="n">
         <v>-21.7</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>2.8</v>
       </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>15</v>
-      </c>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>22.6</v>
+        <v>75</v>
       </c>
       <c r="O17" t="n">
-        <v>75</v>
+        <v>513.6666666666666</v>
       </c>
       <c r="P17" t="n">
-        <v>513.6666666666666</v>
+        <v>96858.33333333331</v>
       </c>
       <c r="Q17" t="n">
-        <v>96858.33333333331</v>
+        <v>36775667</v>
       </c>
       <c r="R17" t="n">
-        <v>36775667</v>
+        <v>1149175333</v>
       </c>
       <c r="S17" t="n">
-        <v>1149175333</v>
+        <v>5427716000</v>
       </c>
       <c r="T17" t="n">
-        <v>5427716000</v>
+        <v>2991843333</v>
       </c>
       <c r="U17" t="n">
-        <v>2991843333</v>
+        <v>2435873666</v>
       </c>
       <c r="V17" t="n">
-        <v>2435873666</v>
+        <v>1448474333</v>
       </c>
       <c r="W17" t="n">
-        <v>1448474333</v>
-      </c>
-      <c r="X17" t="n">
         <v>987400666</v>
       </c>
     </row>
@@ -1803,47 +1718,42 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
         <v>-13.1</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>-4.6</v>
       </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>0.9</v>
-      </c>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>19.6</v>
+        <v>59.4</v>
       </c>
       <c r="O18" t="n">
-        <v>59.4</v>
+        <v>513.6666666666666</v>
       </c>
       <c r="P18" t="n">
-        <v>513.6666666666666</v>
+        <v>94968.33333333331</v>
       </c>
       <c r="Q18" t="n">
-        <v>94968.33333333331</v>
+        <v>38536999</v>
       </c>
       <c r="R18" t="n">
-        <v>38536999</v>
+        <v>970536000</v>
       </c>
       <c r="S18" t="n">
-        <v>970536000</v>
+        <v>5890009000</v>
       </c>
       <c r="T18" t="n">
-        <v>5890009000</v>
+        <v>3240303000</v>
       </c>
       <c r="U18" t="n">
-        <v>3240303000</v>
+        <v>2649704667</v>
       </c>
       <c r="V18" t="n">
-        <v>2649704667</v>
+        <v>1607776667</v>
       </c>
       <c r="W18" t="n">
-        <v>1607776667</v>
-      </c>
-      <c r="X18" t="n">
         <v>1041927334</v>
       </c>
     </row>
@@ -1879,47 +1789,42 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
         <v>-20</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>-12.2</v>
       </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>9.5</v>
+        <v>42.9</v>
       </c>
       <c r="O19" t="n">
-        <v>42.9</v>
+        <v>520</v>
       </c>
       <c r="P19" t="n">
-        <v>520</v>
+        <v>95082.33333333331</v>
       </c>
       <c r="Q19" t="n">
-        <v>95082.33333333331</v>
+        <v>36891000</v>
       </c>
       <c r="R19" t="n">
-        <v>36891000</v>
+        <v>1053273000</v>
       </c>
       <c r="S19" t="n">
-        <v>1053273000</v>
+        <v>5856515000</v>
       </c>
       <c r="T19" t="n">
-        <v>5856515000</v>
+        <v>3226729334</v>
       </c>
       <c r="U19" t="n">
-        <v>3226729334</v>
+        <v>2629786001</v>
       </c>
       <c r="V19" t="n">
-        <v>2629786001</v>
+        <v>1576261334</v>
       </c>
       <c r="W19" t="n">
-        <v>1576261334</v>
-      </c>
-      <c r="X19" t="n">
         <v>1053524667</v>
       </c>
     </row>
@@ -1955,47 +1860,42 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
         <v>-17.4</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>-20.3</v>
       </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>-11.6</v>
-      </c>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>-5.8</v>
+        <v>32.5</v>
       </c>
       <c r="O20" t="n">
-        <v>32.5</v>
+        <v>520</v>
       </c>
       <c r="P20" t="n">
-        <v>520</v>
+        <v>95791.33333333331</v>
       </c>
       <c r="Q20" t="n">
-        <v>95791.33333333331</v>
+        <v>37470000</v>
       </c>
       <c r="R20" t="n">
-        <v>37470000</v>
+        <v>992028334</v>
       </c>
       <c r="S20" t="n">
-        <v>992028334</v>
+        <v>5824154667</v>
       </c>
       <c r="T20" t="n">
-        <v>5824154667</v>
+        <v>3245235666</v>
       </c>
       <c r="U20" t="n">
-        <v>3245235666</v>
+        <v>2578917333</v>
       </c>
       <c r="V20" t="n">
-        <v>2578917333</v>
+        <v>1509165666</v>
       </c>
       <c r="W20" t="n">
-        <v>1509165666</v>
-      </c>
-      <c r="X20" t="n">
         <v>1069753333</v>
       </c>
     </row>
@@ -2031,47 +1931,42 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
         <v>-39.3</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>-35.1</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>-37.5</v>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>-18.9</v>
+        <v>-7.1</v>
       </c>
       <c r="O21" t="n">
-        <v>-7.1</v>
+        <v>519.6666666666666</v>
       </c>
       <c r="P21" t="n">
-        <v>519.6666666666666</v>
+        <v>94913.33333333331</v>
       </c>
       <c r="Q21" t="n">
-        <v>94913.33333333331</v>
+        <v>35702666</v>
       </c>
       <c r="R21" t="n">
-        <v>35702666</v>
+        <v>1128682667</v>
       </c>
       <c r="S21" t="n">
-        <v>1128682667</v>
+        <v>5237315001</v>
       </c>
       <c r="T21" t="n">
-        <v>5237315001</v>
+        <v>2841992334</v>
       </c>
       <c r="U21" t="n">
-        <v>2841992334</v>
+        <v>2395322667</v>
       </c>
       <c r="V21" t="n">
-        <v>2395322667</v>
+        <v>1414362667</v>
       </c>
       <c r="W21" t="n">
-        <v>1414362667</v>
-      </c>
-      <c r="X21" t="n">
         <v>980959000</v>
       </c>
     </row>
@@ -2107,47 +2002,42 @@
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
         <v>-25.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>-15.5</v>
       </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>-6.3</v>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>-20.7</v>
+        <v>4.5</v>
       </c>
       <c r="O22" t="n">
-        <v>4.5</v>
+        <v>510.6666666666667</v>
       </c>
       <c r="P22" t="n">
-        <v>510.6666666666667</v>
+        <v>91198.66666666669</v>
       </c>
       <c r="Q22" t="n">
-        <v>91198.66666666669</v>
+        <v>36901333</v>
       </c>
       <c r="R22" t="n">
-        <v>36901333</v>
+        <v>962999334</v>
       </c>
       <c r="S22" t="n">
-        <v>962999334</v>
+        <v>5709659333</v>
       </c>
       <c r="T22" t="n">
-        <v>5709659333</v>
+        <v>3135780667</v>
       </c>
       <c r="U22" t="n">
-        <v>3135780667</v>
+        <v>2573877666</v>
       </c>
       <c r="V22" t="n">
-        <v>2573877666</v>
+        <v>1539225000</v>
       </c>
       <c r="W22" t="n">
-        <v>1539225000</v>
-      </c>
-      <c r="X22" t="n">
         <v>1034652667</v>
       </c>
     </row>
@@ -2182,52 +2072,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>-25.1</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>-43.3</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>-50.5</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>-14.4</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>-34.6</v>
       </c>
-      <c r="N23" t="n">
-        <v>-27.9</v>
-      </c>
       <c r="O23" t="n">
-        <v>-34.6</v>
+        <v>511</v>
       </c>
       <c r="P23" t="n">
-        <v>511</v>
+        <v>90453.66666666669</v>
       </c>
       <c r="Q23" t="n">
-        <v>90453.66666666669</v>
+        <v>33309667</v>
       </c>
       <c r="R23" t="n">
-        <v>33309667</v>
+        <v>972206999</v>
       </c>
       <c r="S23" t="n">
-        <v>972206999</v>
+        <v>5263440001</v>
       </c>
       <c r="T23" t="n">
-        <v>5263440001</v>
+        <v>2968302334</v>
       </c>
       <c r="U23" t="n">
-        <v>2968302334</v>
+        <v>2295139333</v>
       </c>
       <c r="V23" t="n">
-        <v>2295139333</v>
+        <v>1348063000</v>
       </c>
       <c r="W23" t="n">
-        <v>1348063000</v>
-      </c>
-      <c r="X23" t="n">
         <v>947075000</v>
       </c>
     </row>
@@ -2262,52 +2147,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
         <v>-32.7</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>-44.9</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>-37.1</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>12.1</v>
       </c>
-      <c r="M24" t="n">
-        <v>-30.8</v>
-      </c>
       <c r="N24" t="n">
-        <v>-28</v>
+        <v>-65.40000000000001</v>
       </c>
       <c r="O24" t="n">
-        <v>-65.40000000000001</v>
+        <v>509.3333333333333</v>
       </c>
       <c r="P24" t="n">
-        <v>509.3333333333333</v>
+        <v>90486.33333333331</v>
       </c>
       <c r="Q24" t="n">
-        <v>90486.33333333331</v>
+        <v>34561333</v>
       </c>
       <c r="R24" t="n">
-        <v>34561333</v>
+        <v>943230333</v>
       </c>
       <c r="S24" t="n">
-        <v>943230333</v>
+        <v>5455198666</v>
       </c>
       <c r="T24" t="n">
-        <v>5455198666</v>
+        <v>3009501667</v>
       </c>
       <c r="U24" t="n">
-        <v>3009501667</v>
+        <v>2445697667</v>
       </c>
       <c r="V24" t="n">
-        <v>2445697667</v>
+        <v>1436132334</v>
       </c>
       <c r="W24" t="n">
-        <v>1436132334</v>
-      </c>
-      <c r="X24" t="n">
         <v>1009566333</v>
       </c>
     </row>
@@ -2342,52 +2222,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
         <v>-25</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>-30.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>-25</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>7.8</v>
       </c>
-      <c r="M25" t="n">
-        <v>-7.8</v>
-      </c>
       <c r="N25" t="n">
-        <v>-23.3</v>
+        <v>-36.2</v>
       </c>
       <c r="O25" t="n">
-        <v>-36.2</v>
+        <v>507.6666666666667</v>
       </c>
       <c r="P25" t="n">
-        <v>507.6666666666667</v>
+        <v>90082</v>
       </c>
       <c r="Q25" t="n">
-        <v>90082</v>
+        <v>34245666</v>
       </c>
       <c r="R25" t="n">
-        <v>34245666</v>
+        <v>1109092667</v>
       </c>
       <c r="S25" t="n">
-        <v>1109092667</v>
+        <v>5318301334</v>
       </c>
       <c r="T25" t="n">
-        <v>5318301334</v>
+        <v>2884399667</v>
       </c>
       <c r="U25" t="n">
-        <v>2884399667</v>
+        <v>2433902667</v>
       </c>
       <c r="V25" t="n">
-        <v>2433902667</v>
+        <v>1430003666</v>
       </c>
       <c r="W25" t="n">
-        <v>1430003666</v>
-      </c>
-      <c r="X25" t="n">
         <v>1003897334</v>
       </c>
     </row>
@@ -2422,52 +2297,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>-4.9</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>-22.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>-17.6</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>-47.1</v>
       </c>
-      <c r="M26" t="n">
-        <v>2.9</v>
-      </c>
       <c r="N26" t="n">
-        <v>24.5</v>
+        <v>-15.8</v>
       </c>
       <c r="O26" t="n">
-        <v>-15.8</v>
+        <v>502</v>
       </c>
       <c r="P26" t="n">
-        <v>502</v>
+        <v>90729.66666666669</v>
       </c>
       <c r="Q26" t="n">
-        <v>90729.66666666669</v>
+        <v>36965999</v>
       </c>
       <c r="R26" t="n">
-        <v>36965999</v>
+        <v>974585334</v>
       </c>
       <c r="S26" t="n">
-        <v>974585334</v>
+        <v>5976957334</v>
       </c>
       <c r="T26" t="n">
-        <v>5976957334</v>
+        <v>3244216334</v>
       </c>
       <c r="U26" t="n">
-        <v>3244216334</v>
+        <v>2732742000</v>
       </c>
       <c r="V26" t="n">
-        <v>2732742000</v>
+        <v>1596298000</v>
       </c>
       <c r="W26" t="n">
-        <v>1596298000</v>
-      </c>
-      <c r="X26" t="n">
         <v>1136444667</v>
       </c>
     </row>
@@ -2502,52 +2372,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>-67.7</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>-11.1</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>-82.8</v>
       </c>
-      <c r="M27" t="n">
-        <v>12.1</v>
-      </c>
       <c r="N27" t="n">
-        <v>86.90000000000001</v>
+        <v>5.1</v>
       </c>
       <c r="O27" t="n">
-        <v>5.1</v>
+        <v>502.3333333333333</v>
       </c>
       <c r="P27" t="n">
-        <v>502.3333333333333</v>
+        <v>90940.66666666669</v>
       </c>
       <c r="Q27" t="n">
-        <v>90940.66666666669</v>
+        <v>35490667</v>
       </c>
       <c r="R27" t="n">
-        <v>35490667</v>
+        <v>1054579999</v>
       </c>
       <c r="S27" t="n">
-        <v>1054579999</v>
+        <v>6521004667</v>
       </c>
       <c r="T27" t="n">
-        <v>6521004667</v>
+        <v>3571823999</v>
       </c>
       <c r="U27" t="n">
-        <v>3571823999</v>
+        <v>2949181333</v>
       </c>
       <c r="V27" t="n">
-        <v>2949181333</v>
+        <v>1697369667</v>
       </c>
       <c r="W27" t="n">
-        <v>1697369667</v>
-      </c>
-      <c r="X27" t="n">
         <v>1251811667</v>
       </c>
     </row>
@@ -2582,52 +2447,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
         <v>17.3</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>-31.6</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>-4.2</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>2</v>
       </c>
-      <c r="M28" t="n">
-        <v>17.3</v>
-      </c>
       <c r="N28" t="n">
-        <v>52</v>
+        <v>43.9</v>
       </c>
       <c r="O28" t="n">
-        <v>43.9</v>
+        <v>502</v>
       </c>
       <c r="P28" t="n">
-        <v>502</v>
+        <v>91740.66666666669</v>
       </c>
       <c r="Q28" t="n">
-        <v>91740.66666666669</v>
+        <v>35435001</v>
       </c>
       <c r="R28" t="n">
-        <v>35435001</v>
+        <v>992792000</v>
       </c>
       <c r="S28" t="n">
-        <v>992792000</v>
+        <v>6682369000</v>
       </c>
       <c r="T28" t="n">
-        <v>6682369000</v>
+        <v>3692664667</v>
       </c>
       <c r="U28" t="n">
-        <v>3692664667</v>
+        <v>2989704333</v>
       </c>
       <c r="V28" t="n">
-        <v>2989704333</v>
+        <v>1687728333</v>
       </c>
       <c r="W28" t="n">
-        <v>1687728333</v>
-      </c>
-      <c r="X28" t="n">
         <v>1301976000</v>
       </c>
     </row>
@@ -2662,52 +2522,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>6.8</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>-22.7</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>-8.1</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>-2.3</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.1</v>
-      </c>
       <c r="N29" t="n">
-        <v>30.7</v>
+        <v>33</v>
       </c>
       <c r="O29" t="n">
-        <v>33</v>
+        <v>501</v>
       </c>
       <c r="P29" t="n">
-        <v>501</v>
+        <v>92002.66666666669</v>
       </c>
       <c r="Q29" t="n">
-        <v>92002.66666666669</v>
+        <v>34791000</v>
       </c>
       <c r="R29" t="n">
-        <v>34791000</v>
+        <v>1135991667</v>
       </c>
       <c r="S29" t="n">
-        <v>1135991667</v>
+        <v>6255121333</v>
       </c>
       <c r="T29" t="n">
-        <v>6255121333</v>
+        <v>3363693000</v>
       </c>
       <c r="U29" t="n">
-        <v>3363693000</v>
+        <v>2891427666</v>
       </c>
       <c r="V29" t="n">
-        <v>2891427666</v>
+        <v>1658191667</v>
       </c>
       <c r="W29" t="n">
-        <v>1658191667</v>
-      </c>
-      <c r="X29" t="n">
         <v>1233235667</v>
       </c>
     </row>
@@ -2742,52 +2597,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>0.8</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>-41.2</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>-7.7</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>-25.2</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>5.9</v>
       </c>
-      <c r="N30" t="n">
-        <v>74.8</v>
-      </c>
       <c r="O30" t="n">
-        <v>5.9</v>
+        <v>507</v>
       </c>
       <c r="P30" t="n">
-        <v>507</v>
+        <v>92544</v>
       </c>
       <c r="Q30" t="n">
-        <v>92544</v>
+        <v>37085334</v>
       </c>
       <c r="R30" t="n">
-        <v>37085334</v>
+        <v>1003298000</v>
       </c>
       <c r="S30" t="n">
-        <v>1003298000</v>
+        <v>7260732999</v>
       </c>
       <c r="T30" t="n">
-        <v>7260732999</v>
+        <v>3952320667</v>
       </c>
       <c r="U30" t="n">
-        <v>3952320667</v>
+        <v>3308410666</v>
       </c>
       <c r="V30" t="n">
-        <v>3308410666</v>
+        <v>1942118333</v>
       </c>
       <c r="W30" t="n">
-        <v>1942118333</v>
-      </c>
-      <c r="X30" t="n">
         <v>1366293000</v>
       </c>
     </row>
@@ -2822,52 +2672,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>-6.7</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>-75</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>-45.5</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>-76.90000000000001</v>
       </c>
-      <c r="M31" t="n">
-        <v>-24.3</v>
-      </c>
       <c r="N31" t="n">
-        <v>95.2</v>
+        <v>-12.6</v>
       </c>
       <c r="O31" t="n">
-        <v>-12.6</v>
+        <v>509.6666666666667</v>
       </c>
       <c r="P31" t="n">
-        <v>509.6666666666667</v>
+        <v>93034.33333333331</v>
       </c>
       <c r="Q31" t="n">
-        <v>93034.33333333331</v>
+        <v>35705334</v>
       </c>
       <c r="R31" t="n">
-        <v>35705334</v>
+        <v>1100923000</v>
       </c>
       <c r="S31" t="n">
-        <v>1100923000</v>
+        <v>7571556001</v>
       </c>
       <c r="T31" t="n">
-        <v>7571556001</v>
+        <v>4122349001</v>
       </c>
       <c r="U31" t="n">
-        <v>4122349001</v>
+        <v>3449206333</v>
       </c>
       <c r="V31" t="n">
-        <v>3449206333</v>
+        <v>2028426334</v>
       </c>
       <c r="W31" t="n">
-        <v>2028426334</v>
-      </c>
-      <c r="X31" t="n">
         <v>1420781667</v>
       </c>
     </row>
@@ -2902,52 +2747,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>-0.9</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>-46.8</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>-34.3</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>-17.4</v>
       </c>
-      <c r="M32" t="n">
-        <v>-23.9</v>
-      </c>
       <c r="N32" t="n">
-        <v>55.6</v>
+        <v>-14.7</v>
       </c>
       <c r="O32" t="n">
-        <v>-14.7</v>
+        <v>508.6666666666667</v>
       </c>
       <c r="P32" t="n">
-        <v>508.6666666666667</v>
+        <v>93600.33333333331</v>
       </c>
       <c r="Q32" t="n">
-        <v>93600.33333333331</v>
+        <v>35585333</v>
       </c>
       <c r="R32" t="n">
-        <v>35585333</v>
+        <v>1033791666</v>
       </c>
       <c r="S32" t="n">
-        <v>1033791666</v>
+        <v>7266519333</v>
       </c>
       <c r="T32" t="n">
-        <v>7266519333</v>
+        <v>4026950334</v>
       </c>
       <c r="U32" t="n">
-        <v>4026950334</v>
+        <v>3239569333</v>
       </c>
       <c r="V32" t="n">
-        <v>3239569333</v>
+        <v>1838788333</v>
       </c>
       <c r="W32" t="n">
-        <v>1838788333</v>
-      </c>
-      <c r="X32" t="n">
         <v>1400780000</v>
       </c>
     </row>
@@ -2982,52 +2822,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>-27.7</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>-77.09999999999999</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>-61.4</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>4.8</v>
       </c>
-      <c r="M33" t="n">
-        <v>-65.09999999999999</v>
-      </c>
       <c r="N33" t="n">
-        <v>26.5</v>
+        <v>-47</v>
       </c>
       <c r="O33" t="n">
-        <v>-47</v>
+        <v>508.3333333333333</v>
       </c>
       <c r="P33" t="n">
-        <v>508.3333333333333</v>
+        <v>93135.33333333331</v>
       </c>
       <c r="Q33" t="n">
-        <v>93135.33333333331</v>
+        <v>34132667</v>
       </c>
       <c r="R33" t="n">
-        <v>34132667</v>
+        <v>1188628667</v>
       </c>
       <c r="S33" t="n">
-        <v>1188628667</v>
+        <v>6450587000</v>
       </c>
       <c r="T33" t="n">
-        <v>6450587000</v>
+        <v>3496869000</v>
       </c>
       <c r="U33" t="n">
-        <v>3496869000</v>
+        <v>2953718000</v>
       </c>
       <c r="V33" t="n">
-        <v>2953718000</v>
+        <v>1678906000</v>
       </c>
       <c r="W33" t="n">
-        <v>1678906000</v>
-      </c>
-      <c r="X33" t="n">
         <v>1274810999</v>
       </c>
     </row>
@@ -3062,52 +2897,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
         <v>-16.2</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>-59.8</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>-40.8</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>21.2</v>
       </c>
-      <c r="M34" t="n">
-        <v>-45.5</v>
-      </c>
       <c r="N34" t="n">
-        <v>15.2</v>
+        <v>-27.3</v>
       </c>
       <c r="O34" t="n">
-        <v>-27.3</v>
+        <v>516</v>
       </c>
       <c r="P34" t="n">
-        <v>516</v>
+        <v>92631</v>
       </c>
       <c r="Q34" t="n">
-        <v>92631</v>
+        <v>37253334</v>
       </c>
       <c r="R34" t="n">
-        <v>37253334</v>
+        <v>1063899000</v>
       </c>
       <c r="S34" t="n">
-        <v>1063899000</v>
+        <v>7023919000</v>
       </c>
       <c r="T34" t="n">
-        <v>7023919000</v>
+        <v>3765564000</v>
       </c>
       <c r="U34" t="n">
-        <v>3765564000</v>
+        <v>3258355000</v>
       </c>
       <c r="V34" t="n">
-        <v>3258355000</v>
+        <v>1933470667</v>
       </c>
       <c r="W34" t="n">
-        <v>1933470667</v>
-      </c>
-      <c r="X34" t="n">
         <v>1324885333</v>
       </c>
     </row>
@@ -3142,52 +2972,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>-23.5</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>-57.3</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>-42.5</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>18.3</v>
       </c>
-      <c r="M35" t="n">
-        <v>-39</v>
-      </c>
       <c r="N35" t="n">
-        <v>-42</v>
+        <v>-20.7</v>
       </c>
       <c r="O35" t="n">
-        <v>-20.7</v>
+        <v>519.6666666666666</v>
       </c>
       <c r="P35" t="n">
-        <v>519.6666666666666</v>
+        <v>92435.66666666669</v>
       </c>
       <c r="Q35" t="n">
-        <v>92435.66666666669</v>
+        <v>34534333</v>
       </c>
       <c r="R35" t="n">
-        <v>34534333</v>
+        <v>1133245666</v>
       </c>
       <c r="S35" t="n">
-        <v>1133245666</v>
+        <v>6583597001</v>
       </c>
       <c r="T35" t="n">
-        <v>6583597001</v>
+        <v>3543930999</v>
       </c>
       <c r="U35" t="n">
-        <v>3543930999</v>
+        <v>3039664333</v>
       </c>
       <c r="V35" t="n">
-        <v>3039664333</v>
+        <v>1804471667</v>
       </c>
       <c r="W35" t="n">
-        <v>1804471667</v>
-      </c>
-      <c r="X35" t="n">
         <v>1235192001</v>
       </c>
     </row>
@@ -3222,52 +3047,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
         <v>-32.6</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>-57.1</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>-30.6</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>34.1</v>
       </c>
-      <c r="M36" t="n">
-        <v>-32.6</v>
-      </c>
       <c r="N36" t="n">
-        <v>-61.2</v>
+        <v>-46.5</v>
       </c>
       <c r="O36" t="n">
-        <v>-46.5</v>
+        <v>519</v>
       </c>
       <c r="P36" t="n">
-        <v>519</v>
+        <v>92216.33333333331</v>
       </c>
       <c r="Q36" t="n">
-        <v>92216.33333333331</v>
+        <v>34677667</v>
       </c>
       <c r="R36" t="n">
-        <v>34677667</v>
+        <v>1059254667</v>
       </c>
       <c r="S36" t="n">
-        <v>1059254667</v>
+        <v>6367878001</v>
       </c>
       <c r="T36" t="n">
-        <v>6367878001</v>
+        <v>3462244333</v>
       </c>
       <c r="U36" t="n">
-        <v>3462244333</v>
+        <v>2905634666</v>
       </c>
       <c r="V36" t="n">
-        <v>2905634666</v>
+        <v>1671945667</v>
       </c>
       <c r="W36" t="n">
-        <v>1671945667</v>
-      </c>
-      <c r="X36" t="n">
         <v>1233688000</v>
       </c>
     </row>
@@ -3302,52 +3122,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
         <v>-32.6</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>-67.40000000000001</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>-43.2</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>9</v>
       </c>
-      <c r="M37" t="n">
-        <v>-42.7</v>
-      </c>
       <c r="N37" t="n">
-        <v>-30.3</v>
+        <v>-62.9</v>
       </c>
       <c r="O37" t="n">
-        <v>-62.9</v>
+        <v>518</v>
       </c>
       <c r="P37" t="n">
-        <v>518</v>
+        <v>91727.66666666669</v>
       </c>
       <c r="Q37" t="n">
-        <v>91727.66666666669</v>
+        <v>33598333</v>
       </c>
       <c r="R37" t="n">
-        <v>33598333</v>
+        <v>1221556667</v>
       </c>
       <c r="S37" t="n">
-        <v>1221556667</v>
+        <v>5866299334</v>
       </c>
       <c r="T37" t="n">
-        <v>5866299334</v>
+        <v>3118449667</v>
       </c>
       <c r="U37" t="n">
-        <v>3118449667</v>
+        <v>2747849000</v>
       </c>
       <c r="V37" t="n">
-        <v>2747849000</v>
+        <v>1591837000</v>
       </c>
       <c r="W37" t="n">
-        <v>1591837000</v>
-      </c>
-      <c r="X37" t="n">
         <v>1156011000</v>
       </c>
     </row>
@@ -3382,52 +3197,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
         <v>-28</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>-67.3</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>-17.8</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>13.1</v>
       </c>
-      <c r="M38" t="n">
-        <v>-23.4</v>
-      </c>
       <c r="N38" t="n">
-        <v>-16.8</v>
+        <v>-57</v>
       </c>
       <c r="O38" t="n">
-        <v>-57</v>
+        <v>515.3333333333334</v>
       </c>
       <c r="P38" t="n">
-        <v>515.3333333333334</v>
+        <v>91020.33333333331</v>
       </c>
       <c r="Q38" t="n">
-        <v>91020.33333333331</v>
+        <v>35914000</v>
       </c>
       <c r="R38" t="n">
-        <v>35914000</v>
+        <v>1095762000</v>
       </c>
       <c r="S38" t="n">
-        <v>1095762000</v>
+        <v>6347076666</v>
       </c>
       <c r="T38" t="n">
-        <v>6347076666</v>
+        <v>3326465666</v>
       </c>
       <c r="U38" t="n">
-        <v>3326465666</v>
+        <v>3020612000</v>
       </c>
       <c r="V38" t="n">
-        <v>3020612000</v>
+        <v>1781262667</v>
       </c>
       <c r="W38" t="n">
-        <v>1781262667</v>
-      </c>
-      <c r="X38" t="n">
         <v>1239349000</v>
       </c>
     </row>
@@ -3462,52 +3272,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
         <v>-18.3</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>-52.9</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>-19.4</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>-16.3</v>
       </c>
-      <c r="M39" t="n">
-        <v>-6.7</v>
-      </c>
       <c r="N39" t="n">
-        <v>18.3</v>
+        <v>-58.7</v>
       </c>
       <c r="O39" t="n">
-        <v>-58.7</v>
+        <v>520.3333333333334</v>
       </c>
       <c r="P39" t="n">
-        <v>520.3333333333334</v>
+        <v>91106.33333333331</v>
       </c>
       <c r="Q39" t="n">
-        <v>91106.33333333331</v>
+        <v>34765333</v>
       </c>
       <c r="R39" t="n">
-        <v>34765333</v>
+        <v>1163913000</v>
       </c>
       <c r="S39" t="n">
-        <v>1163913000</v>
+        <v>6503759666</v>
       </c>
       <c r="T39" t="n">
-        <v>6503759666</v>
+        <v>3432560000</v>
       </c>
       <c r="U39" t="n">
-        <v>3432560000</v>
+        <v>3071200667</v>
       </c>
       <c r="V39" t="n">
-        <v>3071200667</v>
+        <v>1843917333</v>
       </c>
       <c r="W39" t="n">
-        <v>1843917333</v>
-      </c>
-      <c r="X39" t="n">
         <v>1227282333</v>
       </c>
     </row>
@@ -3542,52 +3347,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
         <v>-13.7</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>-39.2</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>-11</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>-1</v>
       </c>
-      <c r="M40" t="n">
-        <v>-16.7</v>
-      </c>
       <c r="N40" t="n">
-        <v>-7.8</v>
+        <v>-53.9</v>
       </c>
       <c r="O40" t="n">
-        <v>-53.9</v>
+        <v>519</v>
       </c>
       <c r="P40" t="n">
-        <v>519</v>
+        <v>91500.66666666669</v>
       </c>
       <c r="Q40" t="n">
-        <v>91500.66666666669</v>
+        <v>34787667</v>
       </c>
       <c r="R40" t="n">
-        <v>34787667</v>
+        <v>1095399999</v>
       </c>
       <c r="S40" t="n">
-        <v>1095399999</v>
+        <v>6371018000</v>
       </c>
       <c r="T40" t="n">
-        <v>6371018000</v>
+        <v>3415055333</v>
       </c>
       <c r="U40" t="n">
-        <v>3415055333</v>
+        <v>2955962667</v>
       </c>
       <c r="V40" t="n">
-        <v>2955962667</v>
+        <v>1685432333</v>
       </c>
       <c r="W40" t="n">
-        <v>1685432333</v>
-      </c>
-      <c r="X40" t="n">
         <v>1270530001</v>
       </c>
     </row>
@@ -3622,52 +3422,47 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
         <v>-20.2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>-51.9</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>-25.7</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="n">
-        <v>-29.8</v>
-      </c>
       <c r="N41" t="n">
-        <v>-3.8</v>
+        <v>-53.8</v>
       </c>
       <c r="O41" t="n">
-        <v>-53.8</v>
+        <v>518.3333333333334</v>
       </c>
       <c r="P41" t="n">
-        <v>518.3333333333334</v>
+        <v>91660</v>
       </c>
       <c r="Q41" t="n">
-        <v>91660</v>
+        <v>33439001</v>
       </c>
       <c r="R41" t="n">
-        <v>33439001</v>
+        <v>1251171000</v>
       </c>
       <c r="S41" t="n">
-        <v>1251171000</v>
+        <v>5800767666</v>
       </c>
       <c r="T41" t="n">
-        <v>5800767666</v>
+        <v>3030831999</v>
       </c>
       <c r="U41" t="n">
-        <v>3030831999</v>
+        <v>2769936000</v>
       </c>
       <c r="V41" t="n">
-        <v>2769936000</v>
+        <v>1595233333</v>
       </c>
       <c r="W41" t="n">
-        <v>1595233333</v>
-      </c>
-      <c r="X41" t="n">
         <v>1174701333</v>
       </c>
     </row>
@@ -3694,27 +3489,23 @@
           <t>IK Kunststoffverpackungen</t>
         </is>
       </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
         <v>-17.39130434782609</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>-43.47826086956522</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>-9.890109890109891</v>
       </c>
-      <c r="L42" t="n">
+      <c r="M42" t="n">
         <v>5.434782608695652</v>
       </c>
-      <c r="M42" t="n">
-        <v>-7.608695652173914</v>
-      </c>
       <c r="N42" t="n">
-        <v>1.086956521739129</v>
-      </c>
-      <c r="O42" t="n">
-        <v>-66.30434782608695</v>
-      </c>
+        <v>-66.304347826087</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
@@ -3723,7 +3514,55 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>WZ08-2221(2/3) + WZ08-2222</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>IK Kunststoffverpackungen</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>-15.2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-32.4</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-8.699999999999999</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-56.2</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/IK_Konj+Destatis_HWWI.xlsx
+++ b/data/IK_Konj+Destatis_HWWI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.mueller\Documents\FileCloud\Team Folders\IK_Server\Wirtschaft\statistische Daten\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.mueller\Documents\FileCloud\Team Folders\IK_Server\Wirtschaft\statistische Daten\ik-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC777043-F61A-4731-A050-CD721579E1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2C375E-3141-4077-8096-4FBE3C9BE724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="375" yWindow="2205" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -473,7 +473,7 @@
   <dimension ref="A1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+      <selection activeCell="O42" sqref="O42:W42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3183,33 +3183,6 @@
       <c r="N42">
         <v>-66.304347826086996</v>
       </c>
-      <c r="O42">
-        <v>337.66666666666669</v>
-      </c>
-      <c r="P42">
-        <v>60486</v>
-      </c>
-      <c r="Q42">
-        <v>23392666</v>
-      </c>
-      <c r="R42">
-        <v>725412333</v>
-      </c>
-      <c r="S42">
-        <v>4123257666</v>
-      </c>
-      <c r="T42">
-        <v>2139184667</v>
-      </c>
-      <c r="U42">
-        <v>1984072334</v>
-      </c>
-      <c r="V42">
-        <v>1168366334</v>
-      </c>
-      <c r="W42">
-        <v>815706667</v>
-      </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">

--- a/data/IK_Konj+Destatis_HWWI.xlsx
+++ b/data/IK_Konj+Destatis_HWWI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.mueller\Documents\FileCloud\Team Folders\IK_Server\Wirtschaft\statistische Daten\ik-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82293F0-F412-4158-B1A3-8A5928BA1D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0031626-8EFC-481D-9F08-B43822ACDF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA43" sqref="AA43"/>
+      <selection activeCell="O44" sqref="O44:W45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,33 +3246,6 @@
       <c r="N43">
         <v>-56.2</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -3287,33 +3260,6 @@
       <c r="H44" t="s">
         <v>25</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -3327,33 +3273,6 @@
       </c>
       <c r="H45" t="s">
         <v>25</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/IK_Konj+Destatis_HWWI.xlsx
+++ b/data/IK_Konj+Destatis_HWWI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.mueller\Documents\FileCloud\Team Folders\IK_Server\Wirtschaft\statistische Daten\ik-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCAD584-E97B-4528-A578-98BCDF5BD0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1710DF8-D017-455E-BCE9-088B4A4DE4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,9 +475,9 @@
       <selection activeCell="O43" sqref="O43:W45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -610,7 +610,7 @@
         <v>882786333</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -672,7 +672,7 @@
         <v>921369999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -734,7 +734,7 @@
         <v>917048334</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -796,7 +796,7 @@
         <v>871193334</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -858,7 +858,7 @@
         <v>896210333</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2016</v>
       </c>
@@ -920,7 +920,7 @@
         <v>969759000</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -982,7 +982,7 @@
         <v>962288334</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>920080001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>987298333</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>1041335000</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>1037990667</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>966161334</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>1046669667</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>1084889666</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>1051112334</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>987400666</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>1041927334</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2019</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>1053524667</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>1069753333</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>980959000</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>1034652667</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2020</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>947075000</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2020</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>1009566333</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>1003897334</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -2122,7 +2122,7 @@
         <v>1136444667</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2021</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>1251811667</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>1301976000</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2021</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>1233235667</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>1366293000</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2022</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>1420781667</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2022</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>1400780000</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2022</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>1274810999</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2023</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>1324885333</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2023</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>1235192001</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2023</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>1233688000</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2023</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>1156011000</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2024</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>1269569666</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2024</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>1250462000</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2024</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>1266318001</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2024</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>1171667333</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2025</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>1248682334</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2025</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>-56.2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2025</v>
       </c>
@@ -3252,8 +3252,26 @@
       <c r="H44" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>-3.33</v>
+      </c>
+      <c r="J44">
+        <v>-4.45</v>
+      </c>
+      <c r="K44">
+        <v>-26.670000000000009</v>
+      </c>
+      <c r="L44">
+        <v>-18.39</v>
+      </c>
+      <c r="M44">
+        <v>3.33</v>
+      </c>
+      <c r="N44">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2025</v>
       </c>

--- a/data/IK_Konj+Destatis_HWWI.xlsx
+++ b/data/IK_Konj+Destatis_HWWI.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.mueller\Documents\FileCloud\Team Folders\IK_Server\Wirtschaft\statistische Daten\ik-dashboard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.mueller\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1710DF8-D017-455E-BCE9-088B4A4DE4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25B8159C-214B-44E5-85DD-E3553E26AAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="29">
   <si>
     <t>Jahr</t>
   </si>
@@ -94,12 +94,6 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>WZ08-2221(2/3) + WZ08-2222</t>
-  </si>
-  <si>
-    <t>IK Kunststoffverpackungen</t>
-  </si>
-  <si>
     <t>Q2</t>
   </si>
   <si>
@@ -107,6 +101,12 @@
   </si>
   <si>
     <t>Q4</t>
+  </si>
+  <si>
+    <t>WZ08-2221(2/3) + WZ08-2222</t>
+  </si>
+  <si>
+    <t>IK Kunststoffverpackungen</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,9 +188,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -225,7 +228,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -259,6 +262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -293,9 +297,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,15 +474,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43:W45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44:W44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -568,10 +573,10 @@
         <v>231.7</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K2">
         <v>-4.5</v>
@@ -610,12 +615,12 @@
         <v>882786333</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>163.22999999999999</v>
@@ -630,10 +635,10 @@
         <v>218.52</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>-11.5</v>
@@ -672,12 +677,12 @@
         <v>921369999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>140.46</v>
@@ -692,10 +697,10 @@
         <v>210.61</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>-33.9</v>
@@ -734,12 +739,12 @@
         <v>917048334</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>126.16</v>
@@ -754,10 +759,10 @@
         <v>194.91</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K5">
         <v>-4.9000000000000004</v>
@@ -796,7 +801,7 @@
         <v>871193334</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -816,10 +821,10 @@
         <v>142.32</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K6">
         <v>2.8</v>
@@ -858,12 +863,12 @@
         <v>896210333</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>114.7</v>
@@ -878,10 +883,10 @@
         <v>137.76</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K7">
         <v>-6.9</v>
@@ -920,12 +925,12 @@
         <v>969759000</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>118.35</v>
@@ -940,10 +945,10 @@
         <v>143.69999999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K8">
         <v>-14.5</v>
@@ -982,12 +987,12 @@
         <v>962288334</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>143.86000000000001</v>
@@ -1002,10 +1007,10 @@
         <v>197.8</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>-8</v>
@@ -1044,7 +1049,7 @@
         <v>920080001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -1064,10 +1069,10 @@
         <v>208.7</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1106,12 +1111,12 @@
         <v>987298333</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2017</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>131.21</v>
@@ -1126,10 +1131,10 @@
         <v>158.94</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K11">
         <v>-23.5</v>
@@ -1168,12 +1173,12 @@
         <v>1041335000</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2017</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>129.72</v>
@@ -1188,10 +1193,10 @@
         <v>164.73</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1230,12 +1235,12 @@
         <v>1037990667</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2017</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>157.4</v>
@@ -1250,10 +1255,10 @@
         <v>219.21</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K13">
         <v>-12</v>
@@ -1292,7 +1297,7 @@
         <v>966161334</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -1312,10 +1317,10 @@
         <v>209.11</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K14">
         <v>-5</v>
@@ -1354,12 +1359,12 @@
         <v>1046669667</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>178.55</v>
@@ -1374,10 +1379,10 @@
         <v>222.62</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K15">
         <v>9.8000000000000007</v>
@@ -1416,12 +1421,12 @@
         <v>1084889666</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2018</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>192.67</v>
@@ -1436,10 +1441,10 @@
         <v>261.07</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>-20.3</v>
@@ -1478,12 +1483,12 @@
         <v>1051112334</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2018</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>182.22</v>
@@ -1498,10 +1503,10 @@
         <v>261.83</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K17">
         <v>-21.7</v>
@@ -1540,7 +1545,7 @@
         <v>987400666</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -1560,10 +1565,10 @@
         <v>196.36</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K18">
         <v>-13.1</v>
@@ -1602,12 +1607,12 @@
         <v>1041927334</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2019</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>152.88999999999999</v>
@@ -1622,10 +1627,10 @@
         <v>138.36000000000001</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K19">
         <v>-20</v>
@@ -1664,12 +1669,12 @@
         <v>1053524667</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2019</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>135.44999999999999</v>
@@ -1684,10 +1689,10 @@
         <v>108.4</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K20">
         <v>-17.399999999999999</v>
@@ -1726,12 +1731,12 @@
         <v>1069753333</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>143.37</v>
@@ -1746,10 +1751,10 @@
         <v>135.02000000000001</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K21">
         <v>-39.299999999999997</v>
@@ -1788,7 +1793,7 @@
         <v>980959000</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -1808,10 +1813,10 @@
         <v>102.9</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K22">
         <v>-25.2</v>
@@ -1850,12 +1855,12 @@
         <v>1034652667</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2020</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>75.39</v>
@@ -1870,10 +1875,10 @@
         <v>57.24</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J23">
         <v>-25.1</v>
@@ -1918,12 +1923,12 @@
         <v>947075000</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2020</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>93.46</v>
@@ -1938,10 +1943,10 @@
         <v>83.07</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J24">
         <v>-32.700000000000003</v>
@@ -1986,12 +1991,12 @@
         <v>1009566333</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2020</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>113.49</v>
@@ -2006,10 +2011,10 @@
         <v>156.18</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J25">
         <v>-25</v>
@@ -2054,7 +2059,7 @@
         <v>1003897334</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -2074,10 +2079,10 @@
         <v>196.7</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J26">
         <v>-4.9000000000000004</v>
@@ -2122,12 +2127,12 @@
         <v>1136444667</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2021</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>178.31</v>
@@ -2142,10 +2147,10 @@
         <v>266.13</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2190,12 +2195,12 @@
         <v>1251811667</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2021</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>250.44</v>
@@ -2210,10 +2215,10 @@
         <v>515.91999999999996</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J28">
         <v>17.3</v>
@@ -2258,12 +2263,12 @@
         <v>1301976000</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2021</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>382.66</v>
@@ -2278,10 +2283,10 @@
         <v>1015.22</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J29">
         <v>6.8</v>
@@ -2326,7 +2331,7 @@
         <v>1233235667</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -2346,10 +2351,10 @@
         <v>1069.3900000000001</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J30">
         <v>0.8</v>
@@ -2394,12 +2399,12 @@
         <v>1366293000</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2022</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31">
         <v>477.66</v>
@@ -2414,10 +2419,10 @@
         <v>1051.21</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J31">
         <v>-6.7</v>
@@ -2462,12 +2467,12 @@
         <v>1420781667</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2022</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>718.52</v>
@@ -2482,10 +2487,10 @@
         <v>2130.06</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J32">
         <v>-0.9</v>
@@ -2530,12 +2535,12 @@
         <v>1400780000</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2022</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33">
         <v>432.16</v>
@@ -2550,10 +2555,10 @@
         <v>1011.78</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J33">
         <v>-27.7</v>
@@ -2598,7 +2603,7 @@
         <v>1274810999</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2023</v>
       </c>
@@ -2618,10 +2623,10 @@
         <v>566.32000000000005</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J34">
         <v>-16.2</v>
@@ -2666,12 +2671,12 @@
         <v>1324885333</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2023</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>234.18</v>
@@ -2686,10 +2691,10 @@
         <v>373.05</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J35">
         <v>-23.5</v>
@@ -2734,12 +2739,12 @@
         <v>1235192001</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36">
         <v>241.95</v>
@@ -2754,10 +2759,10 @@
         <v>350.45</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J36">
         <v>-32.6</v>
@@ -2802,12 +2807,12 @@
         <v>1233688000</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>256.51</v>
@@ -2822,10 +2827,10 @@
         <v>430.58</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J37">
         <v>-32.6</v>
@@ -2870,7 +2875,7 @@
         <v>1156011000</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2024</v>
       </c>
@@ -2890,10 +2895,10 @@
         <v>291.47000000000003</v>
       </c>
       <c r="G38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J38">
         <v>-28</v>
@@ -2938,12 +2943,12 @@
         <v>1269569666</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2024</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39">
         <v>237.77</v>
@@ -2958,10 +2963,10 @@
         <v>335.66</v>
       </c>
       <c r="G39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J39">
         <v>-18.3</v>
@@ -3006,12 +3011,12 @@
         <v>1250462000</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2024</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40">
         <v>233.41</v>
@@ -3026,10 +3031,10 @@
         <v>374.65</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J40">
         <v>-13.7</v>
@@ -3074,12 +3079,12 @@
         <v>1266318001</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2024</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C41">
         <v>248.68</v>
@@ -3094,10 +3099,10 @@
         <v>457.27</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J41">
         <v>-20.2</v>
@@ -3142,7 +3147,7 @@
         <v>1171667333</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2025</v>
       </c>
@@ -3162,10 +3167,10 @@
         <v>496.95</v>
       </c>
       <c r="G42" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J42">
         <v>-17.39130434782609</v>
@@ -3210,18 +3215,30 @@
         <v>1248682334</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2025</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>206.45</v>
+      </c>
+      <c r="D43">
+        <v>152.44</v>
+      </c>
+      <c r="E43">
+        <v>155.37</v>
+      </c>
+      <c r="F43">
+        <v>376.9</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J43">
         <v>-15.2</v>
@@ -3238,19 +3255,46 @@
       <c r="N43">
         <v>-56.2</v>
       </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O43">
+        <v>509</v>
+      </c>
+      <c r="P43">
+        <v>90306.666666666686</v>
+      </c>
+      <c r="Q43">
+        <v>34012667</v>
+      </c>
+      <c r="R43">
+        <v>1178328666</v>
+      </c>
+      <c r="S43">
+        <v>6355352000</v>
+      </c>
+      <c r="T43">
+        <v>3367534333</v>
+      </c>
+      <c r="U43">
+        <v>2987817666</v>
+      </c>
+      <c r="V43">
+        <v>1757211000</v>
+      </c>
+      <c r="W43">
+        <v>1230606667</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2025</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I44">
         <v>-3.33</v>
@@ -3271,21 +3315,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>2025</v>
-      </c>
-      <c r="B45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/IK_Konj+Destatis_HWWI.xlsx
+++ b/data/IK_Konj+Destatis_HWWI.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.mueller\Documents\FileCloud\Team Folders\IK_Server\Wirtschaft\statistische Daten\ik-dashboard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.mueller\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCAD584-E97B-4528-A578-98BCDF5BD0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25B8159C-214B-44E5-85DD-E3553E26AAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2880" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="29">
   <si>
     <t>Jahr</t>
   </si>
@@ -94,12 +94,6 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>WZ08-2221(2/3) + WZ08-2222</t>
-  </si>
-  <si>
-    <t>IK Kunststoffverpackungen</t>
-  </si>
-  <si>
     <t>Q2</t>
   </si>
   <si>
@@ -107,6 +101,12 @@
   </si>
   <si>
     <t>Q4</t>
+  </si>
+  <si>
+    <t>WZ08-2221(2/3) + WZ08-2222</t>
+  </si>
+  <si>
+    <t>IK Kunststoffverpackungen</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,9 +188,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -225,7 +228,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -259,6 +262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -293,9 +297,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43:W45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44:W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,10 +573,10 @@
         <v>231.7</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K2">
         <v>-4.5</v>
@@ -615,7 +620,7 @@
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>163.22999999999999</v>
@@ -630,10 +635,10 @@
         <v>218.52</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>-11.5</v>
@@ -677,7 +682,7 @@
         <v>2015</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>140.46</v>
@@ -692,10 +697,10 @@
         <v>210.61</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>-33.9</v>
@@ -739,7 +744,7 @@
         <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>126.16</v>
@@ -754,10 +759,10 @@
         <v>194.91</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K5">
         <v>-4.9000000000000004</v>
@@ -816,10 +821,10 @@
         <v>142.32</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K6">
         <v>2.8</v>
@@ -863,7 +868,7 @@
         <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>114.7</v>
@@ -878,10 +883,10 @@
         <v>137.76</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K7">
         <v>-6.9</v>
@@ -925,7 +930,7 @@
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>118.35</v>
@@ -940,10 +945,10 @@
         <v>143.69999999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K8">
         <v>-14.5</v>
@@ -987,7 +992,7 @@
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>143.86000000000001</v>
@@ -1002,10 +1007,10 @@
         <v>197.8</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>-8</v>
@@ -1064,10 +1069,10 @@
         <v>208.7</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1111,7 +1116,7 @@
         <v>2017</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>131.21</v>
@@ -1126,10 +1131,10 @@
         <v>158.94</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K11">
         <v>-23.5</v>
@@ -1173,7 +1178,7 @@
         <v>2017</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>129.72</v>
@@ -1188,10 +1193,10 @@
         <v>164.73</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1235,7 +1240,7 @@
         <v>2017</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>157.4</v>
@@ -1250,10 +1255,10 @@
         <v>219.21</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K13">
         <v>-12</v>
@@ -1312,10 +1317,10 @@
         <v>209.11</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K14">
         <v>-5</v>
@@ -1359,7 +1364,7 @@
         <v>2018</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>178.55</v>
@@ -1374,10 +1379,10 @@
         <v>222.62</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K15">
         <v>9.8000000000000007</v>
@@ -1421,7 +1426,7 @@
         <v>2018</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>192.67</v>
@@ -1436,10 +1441,10 @@
         <v>261.07</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>-20.3</v>
@@ -1483,7 +1488,7 @@
         <v>2018</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>182.22</v>
@@ -1498,10 +1503,10 @@
         <v>261.83</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K17">
         <v>-21.7</v>
@@ -1560,10 +1565,10 @@
         <v>196.36</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K18">
         <v>-13.1</v>
@@ -1607,7 +1612,7 @@
         <v>2019</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>152.88999999999999</v>
@@ -1622,10 +1627,10 @@
         <v>138.36000000000001</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K19">
         <v>-20</v>
@@ -1669,7 +1674,7 @@
         <v>2019</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>135.44999999999999</v>
@@ -1684,10 +1689,10 @@
         <v>108.4</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K20">
         <v>-17.399999999999999</v>
@@ -1731,7 +1736,7 @@
         <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>143.37</v>
@@ -1746,10 +1751,10 @@
         <v>135.02000000000001</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K21">
         <v>-39.299999999999997</v>
@@ -1808,10 +1813,10 @@
         <v>102.9</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K22">
         <v>-25.2</v>
@@ -1855,7 +1860,7 @@
         <v>2020</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>75.39</v>
@@ -1870,10 +1875,10 @@
         <v>57.24</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J23">
         <v>-25.1</v>
@@ -1923,7 +1928,7 @@
         <v>2020</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>93.46</v>
@@ -1938,10 +1943,10 @@
         <v>83.07</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J24">
         <v>-32.700000000000003</v>
@@ -1991,7 +1996,7 @@
         <v>2020</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>113.49</v>
@@ -2006,10 +2011,10 @@
         <v>156.18</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J25">
         <v>-25</v>
@@ -2074,10 +2079,10 @@
         <v>196.7</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J26">
         <v>-4.9000000000000004</v>
@@ -2127,7 +2132,7 @@
         <v>2021</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>178.31</v>
@@ -2142,10 +2147,10 @@
         <v>266.13</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2195,7 +2200,7 @@
         <v>2021</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>250.44</v>
@@ -2210,10 +2215,10 @@
         <v>515.91999999999996</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J28">
         <v>17.3</v>
@@ -2263,7 +2268,7 @@
         <v>2021</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>382.66</v>
@@ -2278,10 +2283,10 @@
         <v>1015.22</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J29">
         <v>6.8</v>
@@ -2346,10 +2351,10 @@
         <v>1069.3900000000001</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J30">
         <v>0.8</v>
@@ -2399,7 +2404,7 @@
         <v>2022</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31">
         <v>477.66</v>
@@ -2414,10 +2419,10 @@
         <v>1051.21</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J31">
         <v>-6.7</v>
@@ -2467,7 +2472,7 @@
         <v>2022</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>718.52</v>
@@ -2482,10 +2487,10 @@
         <v>2130.06</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J32">
         <v>-0.9</v>
@@ -2535,7 +2540,7 @@
         <v>2022</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33">
         <v>432.16</v>
@@ -2550,10 +2555,10 @@
         <v>1011.78</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J33">
         <v>-27.7</v>
@@ -2618,10 +2623,10 @@
         <v>566.32000000000005</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J34">
         <v>-16.2</v>
@@ -2671,7 +2676,7 @@
         <v>2023</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>234.18</v>
@@ -2686,10 +2691,10 @@
         <v>373.05</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J35">
         <v>-23.5</v>
@@ -2739,7 +2744,7 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36">
         <v>241.95</v>
@@ -2754,10 +2759,10 @@
         <v>350.45</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J36">
         <v>-32.6</v>
@@ -2807,7 +2812,7 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>256.51</v>
@@ -2822,10 +2827,10 @@
         <v>430.58</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J37">
         <v>-32.6</v>
@@ -2890,10 +2895,10 @@
         <v>291.47000000000003</v>
       </c>
       <c r="G38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J38">
         <v>-28</v>
@@ -2943,7 +2948,7 @@
         <v>2024</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39">
         <v>237.77</v>
@@ -2958,10 +2963,10 @@
         <v>335.66</v>
       </c>
       <c r="G39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J39">
         <v>-18.3</v>
@@ -3011,7 +3016,7 @@
         <v>2024</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40">
         <v>233.41</v>
@@ -3026,10 +3031,10 @@
         <v>374.65</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J40">
         <v>-13.7</v>
@@ -3079,7 +3084,7 @@
         <v>2024</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C41">
         <v>248.68</v>
@@ -3094,10 +3099,10 @@
         <v>457.27</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J41">
         <v>-20.2</v>
@@ -3162,10 +3167,10 @@
         <v>496.95</v>
       </c>
       <c r="G42" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J42">
         <v>-17.39130434782609</v>
@@ -3215,13 +3220,25 @@
         <v>2025</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>206.45</v>
+      </c>
+      <c r="D43">
+        <v>152.44</v>
+      </c>
+      <c r="E43">
+        <v>155.37</v>
+      </c>
+      <c r="F43">
+        <v>376.9</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J43">
         <v>-15.2</v>
@@ -3237,6 +3254,33 @@
       </c>
       <c r="N43">
         <v>-56.2</v>
+      </c>
+      <c r="O43">
+        <v>509</v>
+      </c>
+      <c r="P43">
+        <v>90306.666666666686</v>
+      </c>
+      <c r="Q43">
+        <v>34012667</v>
+      </c>
+      <c r="R43">
+        <v>1178328666</v>
+      </c>
+      <c r="S43">
+        <v>6355352000</v>
+      </c>
+      <c r="T43">
+        <v>3367534333</v>
+      </c>
+      <c r="U43">
+        <v>2987817666</v>
+      </c>
+      <c r="V43">
+        <v>1757211000</v>
+      </c>
+      <c r="W43">
+        <v>1230606667</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
@@ -3244,30 +3288,34 @@
         <v>2025</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2025</v>
-      </c>
-      <c r="B45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="I44">
+        <v>-3.33</v>
+      </c>
+      <c r="J44">
+        <v>-4.45</v>
+      </c>
+      <c r="K44">
+        <v>-26.670000000000009</v>
+      </c>
+      <c r="L44">
+        <v>-18.39</v>
+      </c>
+      <c r="M44">
+        <v>3.33</v>
+      </c>
+      <c r="N44">
+        <v>-40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/IK_Konj+Destatis_HWWI.xlsx
+++ b/data/IK_Konj+Destatis_HWWI.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.mueller\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.mueller\Documents\FileCloud\Team Folders\IK_Server\Wirtschaft\statistische Daten\ik-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25B8159C-214B-44E5-85DD-E3553E26AAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074C72A4-7C2A-473E-A94A-86F6AC6FB13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="29">
   <si>
     <t>Jahr</t>
   </si>
@@ -94,6 +94,12 @@
     <t>Q1</t>
   </si>
   <si>
+    <t>WZ08-2221(2/3) + WZ08-2222</t>
+  </si>
+  <si>
+    <t>IK Kunststoffverpackungen</t>
+  </si>
+  <si>
     <t>Q2</t>
   </si>
   <si>
@@ -101,12 +107,6 @@
   </si>
   <si>
     <t>Q4</t>
-  </si>
-  <si>
-    <t>WZ08-2221(2/3) + WZ08-2222</t>
-  </si>
-  <si>
-    <t>IK Kunststoffverpackungen</t>
   </si>
 </sst>
 </file>
@@ -124,10 +124,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,9 +185,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -228,7 +225,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -262,7 +259,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -297,10 +293,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -474,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W44"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44:W44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44:W45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -573,10 +568,10 @@
         <v>231.7</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K2">
         <v>-4.5</v>
@@ -615,12 +610,12 @@
         <v>882786333</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>163.22999999999999</v>
@@ -635,10 +630,10 @@
         <v>218.52</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>-11.5</v>
@@ -677,12 +672,12 @@
         <v>921369999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2015</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>140.46</v>
@@ -697,10 +692,10 @@
         <v>210.61</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <v>-33.9</v>
@@ -739,12 +734,12 @@
         <v>917048334</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>126.16</v>
@@ -759,10 +754,10 @@
         <v>194.91</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K5">
         <v>-4.9000000000000004</v>
@@ -801,7 +796,7 @@
         <v>871193334</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -821,10 +816,10 @@
         <v>142.32</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K6">
         <v>2.8</v>
@@ -863,12 +858,12 @@
         <v>896210333</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>114.7</v>
@@ -883,10 +878,10 @@
         <v>137.76</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K7">
         <v>-6.9</v>
@@ -925,12 +920,12 @@
         <v>969759000</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>118.35</v>
@@ -945,10 +940,10 @@
         <v>143.69999999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K8">
         <v>-14.5</v>
@@ -987,12 +982,12 @@
         <v>962288334</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>143.86000000000001</v>
@@ -1007,10 +1002,10 @@
         <v>197.8</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <v>-8</v>
@@ -1049,7 +1044,7 @@
         <v>920080001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -1069,10 +1064,10 @@
         <v>208.7</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1111,12 +1106,12 @@
         <v>987298333</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2017</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>131.21</v>
@@ -1131,10 +1126,10 @@
         <v>158.94</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K11">
         <v>-23.5</v>
@@ -1173,12 +1168,12 @@
         <v>1041335000</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2017</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>129.72</v>
@@ -1193,10 +1188,10 @@
         <v>164.73</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1235,12 +1230,12 @@
         <v>1037990667</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2017</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>157.4</v>
@@ -1255,10 +1250,10 @@
         <v>219.21</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K13">
         <v>-12</v>
@@ -1297,7 +1292,7 @@
         <v>966161334</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -1317,10 +1312,10 @@
         <v>209.11</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K14">
         <v>-5</v>
@@ -1359,12 +1354,12 @@
         <v>1046669667</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2018</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15">
         <v>178.55</v>
@@ -1379,10 +1374,10 @@
         <v>222.62</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K15">
         <v>9.8000000000000007</v>
@@ -1421,12 +1416,12 @@
         <v>1084889666</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2018</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>192.67</v>
@@ -1441,10 +1436,10 @@
         <v>261.07</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K16">
         <v>-20.3</v>
@@ -1483,12 +1478,12 @@
         <v>1051112334</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2018</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>182.22</v>
@@ -1503,10 +1498,10 @@
         <v>261.83</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K17">
         <v>-21.7</v>
@@ -1545,7 +1540,7 @@
         <v>987400666</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -1565,10 +1560,10 @@
         <v>196.36</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K18">
         <v>-13.1</v>
@@ -1607,12 +1602,12 @@
         <v>1041927334</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2019</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19">
         <v>152.88999999999999</v>
@@ -1627,10 +1622,10 @@
         <v>138.36000000000001</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K19">
         <v>-20</v>
@@ -1669,12 +1664,12 @@
         <v>1053524667</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2019</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>135.44999999999999</v>
@@ -1689,10 +1684,10 @@
         <v>108.4</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K20">
         <v>-17.399999999999999</v>
@@ -1731,12 +1726,12 @@
         <v>1069753333</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>143.37</v>
@@ -1751,10 +1746,10 @@
         <v>135.02000000000001</v>
       </c>
       <c r="G21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K21">
         <v>-39.299999999999997</v>
@@ -1793,7 +1788,7 @@
         <v>980959000</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -1813,10 +1808,10 @@
         <v>102.9</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K22">
         <v>-25.2</v>
@@ -1855,12 +1850,12 @@
         <v>1034652667</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2020</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23">
         <v>75.39</v>
@@ -1875,10 +1870,10 @@
         <v>57.24</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J23">
         <v>-25.1</v>
@@ -1923,12 +1918,12 @@
         <v>947075000</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2020</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>93.46</v>
@@ -1943,10 +1938,10 @@
         <v>83.07</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J24">
         <v>-32.700000000000003</v>
@@ -1991,12 +1986,12 @@
         <v>1009566333</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2020</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>113.49</v>
@@ -2011,10 +2006,10 @@
         <v>156.18</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J25">
         <v>-25</v>
@@ -2059,7 +2054,7 @@
         <v>1003897334</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -2079,10 +2074,10 @@
         <v>196.7</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J26">
         <v>-4.9000000000000004</v>
@@ -2127,12 +2122,12 @@
         <v>1136444667</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2021</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>178.31</v>
@@ -2147,10 +2142,10 @@
         <v>266.13</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2195,12 +2190,12 @@
         <v>1251811667</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2021</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>250.44</v>
@@ -2215,10 +2210,10 @@
         <v>515.91999999999996</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J28">
         <v>17.3</v>
@@ -2263,12 +2258,12 @@
         <v>1301976000</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2021</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>382.66</v>
@@ -2283,10 +2278,10 @@
         <v>1015.22</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J29">
         <v>6.8</v>
@@ -2331,7 +2326,7 @@
         <v>1233235667</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -2351,10 +2346,10 @@
         <v>1069.3900000000001</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J30">
         <v>0.8</v>
@@ -2399,12 +2394,12 @@
         <v>1366293000</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2022</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>477.66</v>
@@ -2419,10 +2414,10 @@
         <v>1051.21</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J31">
         <v>-6.7</v>
@@ -2467,12 +2462,12 @@
         <v>1420781667</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2022</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32">
         <v>718.52</v>
@@ -2487,10 +2482,10 @@
         <v>2130.06</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J32">
         <v>-0.9</v>
@@ -2535,12 +2530,12 @@
         <v>1400780000</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2022</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>432.16</v>
@@ -2555,10 +2550,10 @@
         <v>1011.78</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J33">
         <v>-27.7</v>
@@ -2603,7 +2598,7 @@
         <v>1274810999</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2023</v>
       </c>
@@ -2623,10 +2618,10 @@
         <v>566.32000000000005</v>
       </c>
       <c r="G34" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J34">
         <v>-16.2</v>
@@ -2671,12 +2666,12 @@
         <v>1324885333</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2023</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>234.18</v>
@@ -2691,10 +2686,10 @@
         <v>373.05</v>
       </c>
       <c r="G35" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J35">
         <v>-23.5</v>
@@ -2739,12 +2734,12 @@
         <v>1235192001</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C36">
         <v>241.95</v>
@@ -2759,10 +2754,10 @@
         <v>350.45</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J36">
         <v>-32.6</v>
@@ -2807,12 +2802,12 @@
         <v>1233688000</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>256.51</v>
@@ -2827,10 +2822,10 @@
         <v>430.58</v>
       </c>
       <c r="G37" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J37">
         <v>-32.6</v>
@@ -2875,7 +2870,7 @@
         <v>1156011000</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2024</v>
       </c>
@@ -2895,10 +2890,10 @@
         <v>291.47000000000003</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J38">
         <v>-28</v>
@@ -2943,12 +2938,12 @@
         <v>1269569666</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2024</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C39">
         <v>237.77</v>
@@ -2963,10 +2958,10 @@
         <v>335.66</v>
       </c>
       <c r="G39" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J39">
         <v>-18.3</v>
@@ -3011,12 +3006,12 @@
         <v>1250462000</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2024</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>233.41</v>
@@ -3031,10 +3026,10 @@
         <v>374.65</v>
       </c>
       <c r="G40" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J40">
         <v>-13.7</v>
@@ -3079,12 +3074,12 @@
         <v>1266318001</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2024</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>248.68</v>
@@ -3099,10 +3094,10 @@
         <v>457.27</v>
       </c>
       <c r="G41" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J41">
         <v>-20.2</v>
@@ -3147,7 +3142,7 @@
         <v>1171667333</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2025</v>
       </c>
@@ -3167,10 +3162,10 @@
         <v>496.95</v>
       </c>
       <c r="G42" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J42">
         <v>-17.39130434782609</v>
@@ -3215,12 +3210,12 @@
         <v>1248682334</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2025</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C43">
         <v>206.45</v>
@@ -3235,10 +3230,10 @@
         <v>376.9</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J43">
         <v>-15.2</v>
@@ -3283,18 +3278,18 @@
         <v>1230606667</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2025</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I44">
         <v>-3.33</v>
@@ -3315,7 +3310,39 @@
         <v>-40</v>
       </c>
     </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2025</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45">
+        <v>-27.9</v>
+      </c>
+      <c r="J45">
+        <v>-13.5</v>
+      </c>
+      <c r="K45">
+        <v>-39.6</v>
+      </c>
+      <c r="L45">
+        <v>-22.9</v>
+      </c>
+      <c r="M45">
+        <v>21.6</v>
+      </c>
+      <c r="N45">
+        <v>-55</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/IK_Konj+Destatis_HWWI.xlsx
+++ b/data/IK_Konj+Destatis_HWWI.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.mueller\Documents\FileCloud\Team Folders\IK_Server\Wirtschaft\statistische Daten\ik-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074C72A4-7C2A-473E-A94A-86F6AC6FB13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5CEF87-E625-4579-BB4F-693578466371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -94,12 +94,6 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>WZ08-2221(2/3) + WZ08-2222</t>
-  </si>
-  <si>
-    <t>IK Kunststoffverpackungen</t>
-  </si>
-  <si>
     <t>Q2</t>
   </si>
   <si>
@@ -107,6 +101,12 @@
   </si>
   <si>
     <t>Q4</t>
+  </si>
+  <si>
+    <t>WZ08-2221(2/3) + WZ08-2222</t>
+  </si>
+  <si>
+    <t>IK Kunststoffverpackungen</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -185,9 +188,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -225,7 +228,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -259,6 +262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -293,9 +297,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -471,13 +476,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44:W45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O45" sqref="O45:W45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,7 +553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -568,10 +573,10 @@
         <v>231.7</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K2">
         <v>-4.5</v>
@@ -610,12 +615,12 @@
         <v>882786333</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>163.22999999999999</v>
@@ -630,10 +635,10 @@
         <v>218.52</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>-11.5</v>
@@ -672,12 +677,12 @@
         <v>921369999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2015</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>140.46</v>
@@ -692,10 +697,10 @@
         <v>210.61</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>-33.9</v>
@@ -734,12 +739,12 @@
         <v>917048334</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>126.16</v>
@@ -754,10 +759,10 @@
         <v>194.91</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K5">
         <v>-4.9000000000000004</v>
@@ -796,7 +801,7 @@
         <v>871193334</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -816,10 +821,10 @@
         <v>142.32</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K6">
         <v>2.8</v>
@@ -858,12 +863,12 @@
         <v>896210333</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2016</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>114.7</v>
@@ -878,10 +883,10 @@
         <v>137.76</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K7">
         <v>-6.9</v>
@@ -920,12 +925,12 @@
         <v>969759000</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2016</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>118.35</v>
@@ -940,10 +945,10 @@
         <v>143.69999999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K8">
         <v>-14.5</v>
@@ -982,12 +987,12 @@
         <v>962288334</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2016</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>143.86000000000001</v>
@@ -1002,10 +1007,10 @@
         <v>197.8</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>-8</v>
@@ -1044,7 +1049,7 @@
         <v>920080001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -1064,10 +1069,10 @@
         <v>208.7</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1106,12 +1111,12 @@
         <v>987298333</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2017</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>131.21</v>
@@ -1126,10 +1131,10 @@
         <v>158.94</v>
       </c>
       <c r="G11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K11">
         <v>-23.5</v>
@@ -1168,12 +1173,12 @@
         <v>1041335000</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2017</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>129.72</v>
@@ -1188,10 +1193,10 @@
         <v>164.73</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1230,12 +1235,12 @@
         <v>1037990667</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2017</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>157.4</v>
@@ -1250,10 +1255,10 @@
         <v>219.21</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K13">
         <v>-12</v>
@@ -1292,7 +1297,7 @@
         <v>966161334</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -1312,10 +1317,10 @@
         <v>209.11</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K14">
         <v>-5</v>
@@ -1354,12 +1359,12 @@
         <v>1046669667</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>178.55</v>
@@ -1374,10 +1379,10 @@
         <v>222.62</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K15">
         <v>9.8000000000000007</v>
@@ -1416,12 +1421,12 @@
         <v>1084889666</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2018</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>192.67</v>
@@ -1436,10 +1441,10 @@
         <v>261.07</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K16">
         <v>-20.3</v>
@@ -1478,12 +1483,12 @@
         <v>1051112334</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2018</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>182.22</v>
@@ -1498,10 +1503,10 @@
         <v>261.83</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K17">
         <v>-21.7</v>
@@ -1540,7 +1545,7 @@
         <v>987400666</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -1560,10 +1565,10 @@
         <v>196.36</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K18">
         <v>-13.1</v>
@@ -1602,12 +1607,12 @@
         <v>1041927334</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2019</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>152.88999999999999</v>
@@ -1622,10 +1627,10 @@
         <v>138.36000000000001</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K19">
         <v>-20</v>
@@ -1664,12 +1669,12 @@
         <v>1053524667</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2019</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>135.44999999999999</v>
@@ -1684,10 +1689,10 @@
         <v>108.4</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K20">
         <v>-17.399999999999999</v>
@@ -1726,12 +1731,12 @@
         <v>1069753333</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>143.37</v>
@@ -1746,10 +1751,10 @@
         <v>135.02000000000001</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K21">
         <v>-39.299999999999997</v>
@@ -1788,7 +1793,7 @@
         <v>980959000</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -1808,10 +1813,10 @@
         <v>102.9</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K22">
         <v>-25.2</v>
@@ -1850,12 +1855,12 @@
         <v>1034652667</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2020</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>75.39</v>
@@ -1870,10 +1875,10 @@
         <v>57.24</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J23">
         <v>-25.1</v>
@@ -1918,12 +1923,12 @@
         <v>947075000</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2020</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>93.46</v>
@@ -1938,10 +1943,10 @@
         <v>83.07</v>
       </c>
       <c r="G24" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J24">
         <v>-32.700000000000003</v>
@@ -1986,12 +1991,12 @@
         <v>1009566333</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2020</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25">
         <v>113.49</v>
@@ -2006,10 +2011,10 @@
         <v>156.18</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J25">
         <v>-25</v>
@@ -2054,7 +2059,7 @@
         <v>1003897334</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -2074,10 +2079,10 @@
         <v>196.7</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J26">
         <v>-4.9000000000000004</v>
@@ -2122,12 +2127,12 @@
         <v>1136444667</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2021</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>178.31</v>
@@ -2142,10 +2147,10 @@
         <v>266.13</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H27" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2190,12 +2195,12 @@
         <v>1251811667</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2021</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>250.44</v>
@@ -2210,10 +2215,10 @@
         <v>515.91999999999996</v>
       </c>
       <c r="G28" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J28">
         <v>17.3</v>
@@ -2258,12 +2263,12 @@
         <v>1301976000</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2021</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>382.66</v>
@@ -2278,10 +2283,10 @@
         <v>1015.22</v>
       </c>
       <c r="G29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J29">
         <v>6.8</v>
@@ -2326,7 +2331,7 @@
         <v>1233235667</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -2346,10 +2351,10 @@
         <v>1069.3900000000001</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J30">
         <v>0.8</v>
@@ -2394,12 +2399,12 @@
         <v>1366293000</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2022</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C31">
         <v>477.66</v>
@@ -2414,10 +2419,10 @@
         <v>1051.21</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J31">
         <v>-6.7</v>
@@ -2462,12 +2467,12 @@
         <v>1420781667</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2022</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>718.52</v>
@@ -2482,10 +2487,10 @@
         <v>2130.06</v>
       </c>
       <c r="G32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J32">
         <v>-0.9</v>
@@ -2530,12 +2535,12 @@
         <v>1400780000</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2022</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C33">
         <v>432.16</v>
@@ -2550,10 +2555,10 @@
         <v>1011.78</v>
       </c>
       <c r="G33" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J33">
         <v>-27.7</v>
@@ -2598,7 +2603,7 @@
         <v>1274810999</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2023</v>
       </c>
@@ -2618,10 +2623,10 @@
         <v>566.32000000000005</v>
       </c>
       <c r="G34" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J34">
         <v>-16.2</v>
@@ -2666,12 +2671,12 @@
         <v>1324885333</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2023</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>234.18</v>
@@ -2686,10 +2691,10 @@
         <v>373.05</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H35" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J35">
         <v>-23.5</v>
@@ -2734,12 +2739,12 @@
         <v>1235192001</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36">
         <v>241.95</v>
@@ -2754,10 +2759,10 @@
         <v>350.45</v>
       </c>
       <c r="G36" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J36">
         <v>-32.6</v>
@@ -2802,12 +2807,12 @@
         <v>1233688000</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>256.51</v>
@@ -2822,10 +2827,10 @@
         <v>430.58</v>
       </c>
       <c r="G37" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J37">
         <v>-32.6</v>
@@ -2870,7 +2875,7 @@
         <v>1156011000</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2024</v>
       </c>
@@ -2890,10 +2895,10 @@
         <v>291.47000000000003</v>
       </c>
       <c r="G38" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J38">
         <v>-28</v>
@@ -2938,12 +2943,12 @@
         <v>1269569666</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2024</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39">
         <v>237.77</v>
@@ -2958,10 +2963,10 @@
         <v>335.66</v>
       </c>
       <c r="G39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H39" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J39">
         <v>-18.3</v>
@@ -3006,12 +3011,12 @@
         <v>1250462000</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2024</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40">
         <v>233.41</v>
@@ -3026,10 +3031,10 @@
         <v>374.65</v>
       </c>
       <c r="G40" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J40">
         <v>-13.7</v>
@@ -3074,12 +3079,12 @@
         <v>1266318001</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2024</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C41">
         <v>248.68</v>
@@ -3094,10 +3099,10 @@
         <v>457.27</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J41">
         <v>-20.2</v>
@@ -3142,7 +3147,7 @@
         <v>1171667333</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2025</v>
       </c>
@@ -3162,10 +3167,10 @@
         <v>496.95</v>
       </c>
       <c r="G42" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J42">
         <v>-17.39130434782609</v>
@@ -3210,12 +3215,12 @@
         <v>1248682334</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2025</v>
       </c>
       <c r="B43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <v>206.45</v>
@@ -3230,10 +3235,10 @@
         <v>376.9</v>
       </c>
       <c r="G43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J43">
         <v>-15.2</v>
@@ -3278,18 +3283,30 @@
         <v>1230606667</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2025</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>198.46</v>
+      </c>
+      <c r="D44">
+        <v>155.97</v>
+      </c>
+      <c r="E44">
+        <v>154.01</v>
+      </c>
+      <c r="F44">
+        <v>345.47</v>
       </c>
       <c r="G44" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I44">
         <v>-3.33</v>
@@ -3309,19 +3326,46 @@
       <c r="N44">
         <v>-40</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="O44">
+        <v>509.66666666666669</v>
+      </c>
+      <c r="P44">
+        <v>90814.666666666686</v>
+      </c>
+      <c r="Q44">
+        <v>34594000</v>
+      </c>
+      <c r="R44">
+        <v>1121252666</v>
+      </c>
+      <c r="S44">
+        <v>6339248333</v>
+      </c>
+      <c r="T44">
+        <v>3419494000</v>
+      </c>
+      <c r="U44">
+        <v>2919754334</v>
+      </c>
+      <c r="V44">
+        <v>1683136667</v>
+      </c>
+      <c r="W44">
+        <v>1236617667</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2025</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G45" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I45">
         <v>-27.9</v>
@@ -3343,6 +3387,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/IK_Konj+Destatis_HWWI.xlsx
+++ b/data/IK_Konj+Destatis_HWWI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l.mueller\Documents\FileCloud\Team Folders\IK_Server\Wirtschaft\statistische Daten\ik-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5CEF87-E625-4579-BB4F-693578466371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CD4957-9C1E-4746-9DA3-03076CC11340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="29">
   <si>
     <t>Jahr</t>
   </si>
@@ -474,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O45" sqref="O45:W45"/>
@@ -3386,6 +3386,38 @@
         <v>-55</v>
       </c>
     </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2026</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46">
+        <v>-1.830000000000001</v>
+      </c>
+      <c r="J46">
+        <v>-23.86</v>
+      </c>
+      <c r="K46">
+        <v>-32.11</v>
+      </c>
+      <c r="L46">
+        <v>-14.68</v>
+      </c>
+      <c r="M46">
+        <v>12.85</v>
+      </c>
+      <c r="N46">
+        <v>-67.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
